--- a/templates/QARSF/LocationToLocation.xlsx
+++ b/templates/QARSF/LocationToLocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4D0A7-D90C-4A4B-B417-9E987F3FAA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144736D-59D6-48AB-B0A4-9A1E7DF5CD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8171-Existing loc" sheetId="1" r:id="rId1"/>
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0B39B-4FD7-48BF-9EEB-2258D69FB641}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K9"/>
+      <selection activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,52 +950,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1007,7 +961,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+      <selection activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9FD88-E986-47BB-BEBA-C46BCE6B1675}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,67 +1307,62 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>44353</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>1001</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1421,36 +1370,36 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>2007</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="D5">
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -1458,17 +1407,17 @@
       <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="G5">
+        <v>1001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1476,25 +1425,28 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>2007</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1502,29 +1454,31 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1541,56 +1495,14 @@
         <v>13</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D4C39-B11C-43FC-92FE-12951943533F}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,72 +1741,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
